--- a/biology/Botanique/Teucrium_aureum/Teucrium_aureum.xlsx
+++ b/biology/Botanique/Teucrium_aureum/Teucrium_aureum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Teucrium aureum, la Germandrée dorée, est une espèce de plantes à fleurs méditerranéenne de la famille des Lamiacées.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rocailles, sables et pelouses dolomitiques, garrigues. Altitude comprise entre 200 et 1 800 m.
 </t>
@@ -568,7 +584,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ouest-méditerranéen. France : Corbières, Pyrénées orientales, Cévennes, Provence occidentale.
 </t>
@@ -599,9 +617,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (25 avril 2024)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (25 avril 2024) :
 Teucrium aureum subsp. aureum
 Teucrium aureum subsp. turdetanum Devesa &amp; Valdés Berm.</t>
         </is>
@@ -631,11 +651,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Teucrium aureum Schreb.[1].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Germandrée dorée[2],[3],[4].
-Teucrium aureum a pour synonymes[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Teucrium aureum Schreb..
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Germandrée dorée.
+Teucrium aureum a pour synonymes :
 Polium aureum (Schreb.) Moench
 Teucrium commune subsp. aureum (Schreb.) Rouy
 Teucrium flavovirens Batt.
